--- a/stock_historical_data/60m/AEGISCHEM.NS.xlsx
+++ b/stock_historical_data/60m/AEGISCHEM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95885,7 +95885,7 @@
         <v>22</v>
       </c>
       <c r="O1704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1704" t="n">
         <v>0</v>
@@ -96285,7 +96285,225 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>717</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>718.5999755859375</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>703.0499877929688</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>709.0999755859375</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>709.0999755859375</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>89795</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>709.0999755859375</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>712.75</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>708</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>709.25</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>709.25</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>51846</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>709.8499755859375</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>716.7000122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>709.1500244140625</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>716</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>716</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>39684</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>715.2999877929688</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>719.9000244140625</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>712.7999877929688</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>716.4000244140625</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>716.4000244140625</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>61181</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEGISCHEM.NS.xlsx
+++ b/stock_historical_data/60m/AEGISCHEM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1715"/>
+  <dimension ref="A1:R1717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96341,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96395,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96449,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96503,7 +96509,117 @@
       <c r="Q1715" t="n">
         <v>1</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>715.6500244140625</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>724.5</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>711.0499877929688</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>721.8499755859375</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>721.8499755859375</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>132600</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>721.7999877929688</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>722.1500244140625</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>712.9500122070312</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>122515</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEGISCHEM.NS.xlsx
+++ b/stock_historical_data/60m/AEGISCHEM.NS.xlsx
@@ -96565,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96619,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEGISCHEM.NS.xlsx
+++ b/stock_historical_data/60m/AEGISCHEM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1717"/>
+  <dimension ref="A1:R1724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96277,7 +96277,7 @@
         <v>23</v>
       </c>
       <c r="O1711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1711" t="n">
         <v>0</v>
@@ -96624,6 +96624,384 @@
       <c r="R1717" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>718.9500122070312</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>672</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>715.0999755859375</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>715.0999755859375</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>205987</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>715.4000244140625</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>717</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>666.2999877929688</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>672.9000244140625</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>223730</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>671.4500122070312</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>687.4000244140625</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>630</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>638.5499877929688</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>638.5499877929688</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>286893</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>638.4000244140625</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>701.9500122070312</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>625</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>701.4500122070312</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>701.4500122070312</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>267651</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>700.4000244140625</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>704.7999877929688</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>689.1500244140625</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>700.4000244140625</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>700.4000244140625</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>147877</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>699.6500244140625</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>717.5999755859375</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>690.7999877929688</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>699.5</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>699.5</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>154646</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45447.63541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>699.5999755859375</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>702</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>699.5999755859375</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>701.2999877929688</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>701.2999877929688</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>3682</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/AEGISCHEM.NS.xlsx
+++ b/stock_historical_data/60m/AEGISCHEM.NS.xlsx
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>1</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96501,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96555,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96609,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
